--- a/biology/Botanique/Malaxis_des_marais/Malaxis_des_marais.xlsx
+++ b/biology/Botanique/Malaxis_des_marais/Malaxis_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hammarbya paludosa
 Le Malaxis des marais ou Malaxis des tourbières ou Malaxis à deux feuilles (Hammarbya paludosa), est une espèce d'orchidées terrestres d'aire circumpolaire, appartenant au genre monospécifique Hammarbya Kuntze 1891.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Genre monospécifique Hammarbya (proche du genre Malaxis Sol. ex Sw. 1788) : de Hammarby (de) (près d'Uppsala), domaine où Carl von Linné résidait l'été.
 Espèce Hammarbya paludosa : du latin paludosus (marécageux), se référant à l'habitat de la plante.</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : hémicryptophyte à rhizome, très petite (5 à 20 cm), entièrement vert-jaunâtre, dont la tige grêle prolonge deux pseudobulbes — celui supérieur de l'année en cours (souvent visible), celui inférieur de l'année passée — et porte 10 à 25 fleurs en grappe.
 Feuilles : deux ou trois (basilaires et engainant le pseudobulbe supérieur), dont le bord vers le sommet est parfois couvert de minuscules bulbilles (favorisant la multiplication végétative de la plante).
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plutôt sporadique, en juillet-août.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tourbières acides et oligotrophes à sphaignes et mousses, en pleine lumière, de 0 à 1 100 m.
 </t>
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aire circumpolaire (Eurasie, Amérique du Nord). Rare en Europe. Très rare en France : Massif ardennais, Massif armoricain (Monts d'Arrée notamment), Massif central, Massif des Vosges.
 </t>
@@ -670,7 +692,9 @@
           <t>Menaces et Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Malgré sa possibilité de multiplication végétative, le malaxis des marais reste rare en raison de ses exigences écologiques très strictes. Cette espèce pionnière est en particulier menacée par la disparition progressive des tourbières acides et l'eutrophisation de ses eaux.
 Le malaxis des marais :
@@ -703,7 +727,9 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pour certains auteurs (dont Pierre Delforge : réf. ci-dessous) :
 Le genre monospécifique Hammarbya n'a pas lieu d'être, la plante étant à rattacher au genre Malaxis, donc sous le nom binominal de Malaxis paludosa ;
